--- a/Modelos UML/Descrição UseCases/VerListadeCarros.xlsx
+++ b/Modelos UML/Descrição UseCases/VerListadeCarros.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eu\Desktop\UM\DSS\Trabalho\DSS\UseCase\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,9 +54,6 @@
     <t>Verificou lista de carros comprados</t>
   </si>
   <si>
-    <t>Administrador</t>
-  </si>
-  <si>
     <t>Ver Lista de Carros</t>
   </si>
   <si>
@@ -66,13 +63,16 @@
     <t>2. Seleciona lista de carros</t>
   </si>
   <si>
-    <t>3. Mostra lista de carros</t>
+    <t>Funcionário</t>
+  </si>
+  <si>
+    <t>3. Mostra lista de carros em produção ou espera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="9"/>
     </row>
@@ -648,13 +648,13 @@
       <c r="B7" s="13"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1"/>
     </row>

--- a/Modelos UML/Descrição UseCases/VerListadeCarros.xlsx
+++ b/Modelos UML/Descrição UseCases/VerListadeCarros.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6267AD-6D22-4943-A34E-77AE99E7DE65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,13 +67,13 @@
     <t>Funcionário</t>
   </si>
   <si>
-    <t>3. Mostra lista de carros em produção ou espera</t>
+    <t>3. Mostra lista de carros em produção</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -581,11 +582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Modelos UML/Descrição UseCases/VerListadeCarros.xlsx
+++ b/Modelos UML/Descrição UseCases/VerListadeCarros.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6267AD-6D22-4943-A34E-77AE99E7DE65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +51,6 @@
     <t>Registado no Sistema</t>
   </si>
   <si>
-    <t>Verificou lista de carros comprados</t>
-  </si>
-  <si>
     <t>Ver Lista de Carros</t>
   </si>
   <si>
@@ -68,12 +64,15 @@
   </si>
   <si>
     <t>3. Mostra lista de carros em produção</t>
+  </si>
+  <si>
+    <t>Verificou lista de carros em produção</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -582,11 +581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -603,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="9"/>
     </row>
@@ -612,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="9"/>
     </row>
@@ -630,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -649,13 +648,13 @@
       <c r="B7" s="13"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -663,7 +662,7 @@
       <c r="B9" s="13"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
